--- a/Documents/RGD.xlsx
+++ b/Documents/RGD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom99\Documents\GitHub\Projet-2nd-semestre\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom99\Documents\GitHub\Phainiks\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705BEDCA-5BA5-4A84-84AF-4F5BD76A6013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDACECE-7237-49F5-BB00-F75B664C881A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{B3696AED-D62A-4EDC-A333-55782D041864}"/>
   </bookViews>
